--- a/Project 4/data_input.xlsx
+++ b/Project 4/data_input.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://purdue0-my.sharepoint.com/personal/aggarw82_purdue_edu/Documents/Sem 3/CE 597/Projects/Project 4/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{027C3918-4CC7-4B67-A989-FEAD8BDD8B4A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="24" documentId="8_{027C3918-4CC7-4B67-A989-FEAD8BDD8B4A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{3192649C-1829-43EC-9711-ACD84318EC26}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" xr2:uid="{4B10ACDB-E19C-4DAC-882C-978ED8D31092}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
   <si>
     <t>,</t>
   </si>
@@ -55,6 +55,18 @@
   </si>
   <si>
     <t>.</t>
+  </si>
+  <si>
+    <t>EOP</t>
+  </si>
+  <si>
+    <t>XI</t>
+  </si>
+  <si>
+    <t>YI</t>
+  </si>
+  <si>
+    <t>ZI</t>
   </si>
 </sst>
 </file>
@@ -410,10 +422,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D75DF50-CC72-4859-873A-451B5942652C}">
-  <dimension ref="A1:K27"/>
+  <dimension ref="A1:P27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+      <selection activeCell="P28" sqref="P28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -426,7 +438,7 @@
     <col min="6" max="6" width="12.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A1">
         <v>4</v>
       </c>
@@ -456,7 +468,7 @@
         <v>[1.45699767,2.64424976,3.03050972,-15.4008911,-9.57443972,1.47863766]</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>5</v>
       </c>
@@ -483,7 +495,7 @@
         <v>[1.2837936,1.2641037,3.70830313,7.55600777,-12.1892602,1.18991695]</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>11</v>
       </c>
@@ -510,7 +522,7 @@
         <v>[1.01405585,2.15717101,3.04105652,-0.265578564,-16.4035252,92.7137826]</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>12</v>
       </c>
@@ -537,7 +549,14 @@
         <v>[2.25034272,2.22607133,3.76196308,-0.80352916,3.90459588,92.4978077]</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="M10" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="N10" s="2"/>
+      <c r="O10" s="2"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.35">
       <c r="C11" s="2" t="s">
         <v>1</v>
       </c>
@@ -554,8 +573,17 @@
         <v>5</v>
       </c>
       <c r="J11" s="2"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="M11" t="s">
+        <v>8</v>
+      </c>
+      <c r="N11" t="s">
+        <v>9</v>
+      </c>
+      <c r="O11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B12">
         <v>5</v>
       </c>
@@ -583,8 +611,17 @@
       <c r="J12">
         <v>-4.0845237000000001</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="M12" s="1">
+        <v>3.7311353280000001</v>
+      </c>
+      <c r="N12" s="1">
+        <v>3.7801397656</v>
+      </c>
+      <c r="O12" s="1">
+        <v>-7.0838477817999998E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B13">
         <v>7</v>
       </c>
@@ -612,8 +649,17 @@
       <c r="J13">
         <v>2.1554622000000001</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="M13" s="1">
+        <v>0.90108606018000004</v>
+      </c>
+      <c r="N13" s="1">
+        <v>2.8180218202999998</v>
+      </c>
+      <c r="O13" s="1">
+        <v>2.6008316122E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B14">
         <v>8</v>
       </c>
@@ -641,8 +687,17 @@
       <c r="J14">
         <v>0.12979450000000001</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="M14" s="1">
+        <v>1.8511589932000001</v>
+      </c>
+      <c r="N14" s="1">
+        <v>2.8257925206999999</v>
+      </c>
+      <c r="O14" s="1">
+        <v>5.9282538012000001E-3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B15">
         <v>9</v>
       </c>
@@ -670,8 +725,17 @@
       <c r="J15">
         <v>-1.9445646000000001</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="M15" s="1">
+        <v>2.8010339963000002</v>
+      </c>
+      <c r="N15" s="1">
+        <v>2.8332144474000001</v>
+      </c>
+      <c r="O15" s="1">
+        <v>-2.3295585378999999E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B16">
         <v>10</v>
       </c>
@@ -699,8 +763,17 @@
       <c r="J16">
         <v>-4.0438732999999996</v>
       </c>
-    </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="M16" s="1">
+        <v>3.7422959220999998</v>
+      </c>
+      <c r="N16" s="1">
+        <v>2.8378518826999999</v>
+      </c>
+      <c r="O16" s="1">
+        <v>-4.4574905143999997E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B17">
         <v>12</v>
       </c>
@@ -728,8 +801,17 @@
       <c r="J17">
         <v>2.2103863000000001</v>
       </c>
-    </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="M17" s="1">
+        <v>0.90892725170999999</v>
+      </c>
+      <c r="N17" s="1">
+        <v>1.8678901456999999</v>
+      </c>
+      <c r="O17" s="1">
+        <v>1.0208246674999999E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B18">
         <v>13</v>
       </c>
@@ -757,8 +839,17 @@
       <c r="J18">
         <v>0.2024928</v>
       </c>
-    </row>
-    <row r="19" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="M18" s="1">
+        <v>1.8588605461000001</v>
+      </c>
+      <c r="N18" s="1">
+        <v>1.8758730363</v>
+      </c>
+      <c r="O18" s="1">
+        <v>7.1618170060999999E-3</v>
+      </c>
+    </row>
+    <row r="19" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B19">
         <v>14</v>
       </c>
@@ -786,8 +877,17 @@
       <c r="J19">
         <v>-1.8679638000000001</v>
       </c>
-    </row>
-    <row r="20" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="M19" s="1">
+        <v>2.8062554595</v>
+      </c>
+      <c r="N19" s="1">
+        <v>1.8838128653999999</v>
+      </c>
+      <c r="O19" s="1">
+        <v>-9.6698096332000008E-3</v>
+      </c>
+    </row>
+    <row r="20" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B20">
         <v>15</v>
       </c>
@@ -815,8 +915,17 @@
       <c r="J20">
         <v>-3.9819054</v>
       </c>
-    </row>
-    <row r="21" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="M20" s="1">
+        <v>3.7520655984000002</v>
+      </c>
+      <c r="N20" s="1">
+        <v>1.8922797004</v>
+      </c>
+      <c r="O20" s="1">
+        <v>-2.0910207447999998E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B21">
         <v>17</v>
       </c>
@@ -844,8 +953,17 @@
       <c r="J21">
         <v>2.2669272999999999</v>
       </c>
-    </row>
-    <row r="22" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="M21" s="1">
+        <v>0.91454137562000004</v>
+      </c>
+      <c r="N21" s="1">
+        <v>0.92066047040999999</v>
+      </c>
+      <c r="O21" s="1">
+        <v>3.8775842510000002E-3</v>
+      </c>
+    </row>
+    <row r="22" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B22">
         <v>18</v>
       </c>
@@ -873,8 +991,17 @@
       <c r="J22">
         <v>0.28537449999999998</v>
       </c>
-    </row>
-    <row r="23" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="M22" s="1">
+        <v>1.8596674595</v>
+      </c>
+      <c r="N22" s="1">
+        <v>0.92760553218999997</v>
+      </c>
+      <c r="O22" s="1">
+        <v>3.049069041E-3</v>
+      </c>
+    </row>
+    <row r="23" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B23">
         <v>19</v>
       </c>
@@ -902,8 +1029,17 @@
       <c r="J23">
         <v>-1.7759560999999999</v>
       </c>
-    </row>
-    <row r="24" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="M23" s="1">
+        <v>2.8078118824999998</v>
+      </c>
+      <c r="N23" s="1">
+        <v>0.93553829291000001</v>
+      </c>
+      <c r="O23" s="1">
+        <v>-3.0509411619000001E-3</v>
+      </c>
+    </row>
+    <row r="24" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B24">
         <v>20</v>
       </c>
@@ -931,8 +1067,17 @@
       <c r="J24">
         <v>-3.8695091000000001</v>
       </c>
-    </row>
-    <row r="27" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="M24" s="1">
+        <v>3.7544680978999998</v>
+      </c>
+      <c r="N24" s="1">
+        <v>0.94557055946000002</v>
+      </c>
+      <c r="O24" s="1">
+        <v>-9.8127723744999996E-3</v>
+      </c>
+    </row>
+    <row r="27" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B27" t="s">
         <v>3</v>
       </c>
@@ -941,7 +1086,7 @@
         <v>[4.9602257,-2.9072616,-0.1185862,2.3693304,4.55226,-2.8170852,-0.2523924,2.0639685,4.1357188,-2.7435201,-0.377666,1.7892301,3.7434257]</v>
       </c>
       <c r="D27" t="str">
-        <f t="shared" ref="D27:J27" si="1">CONCATENATE("[",D12,",",D13,",",D14,",",D15,",",D16,",",D17,",",D18,",",D19,",",D20,",",D21,",",D22,",",D23,",",D24,"]")</f>
+        <f t="shared" ref="D27:O27" si="1">CONCATENATE("[",D12,",",D13,",",D14,",",D15,",",D16,",",D17,",",D18,",",D19,",",D20,",",D21,",",D22,",",D23,",",D24,"]")</f>
         <v>[4.8371958,2.8457077,2.6435584,2.4535729,2.2749642,0.1145881,0.0522464,0.0108191,-0.0225489,-2.1970896,-2.1551888,-2.1014338,-2.0315526]</v>
       </c>
       <c r="E27" t="str">
@@ -971,13 +1116,29 @@
       <c r="K27" t="s">
         <v>6</v>
       </c>
+      <c r="M27" t="str">
+        <f t="shared" si="1"/>
+        <v>[3.731135328,0.90108606018,1.8511589932,2.8010339963,3.7422959221,0.90892725171,1.8588605461,2.8062554595,3.7520655984,0.91454137562,1.8596674595,2.8078118825,3.7544680979]</v>
+      </c>
+      <c r="N27" t="str">
+        <f t="shared" si="1"/>
+        <v>[3.7801397656,2.8180218203,2.8257925207,2.8332144474,2.8378518827,1.8678901457,1.8758730363,1.8838128654,1.8922797004,0.92066047041,0.92760553219,0.93553829291,0.94557055946]</v>
+      </c>
+      <c r="O27" t="str">
+        <f t="shared" si="1"/>
+        <v>[-0.070838477818,0.026008316122,0.0059282538012,-0.023295585379,-0.044574905144,0.010208246675,0.0071618170061,-0.0096698096332,-0.020910207448,0.003877584251,0.003049069041,-0.0030509411619,-0.0098127723745]</v>
+      </c>
+      <c r="P27" t="s">
+        <v>6</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="C11:D11"/>
     <mergeCell ref="E11:F11"/>
     <mergeCell ref="G11:H11"/>
     <mergeCell ref="I11:J11"/>
+    <mergeCell ref="M10:O10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
